--- a/Xml Bayi/Anket sonucu.xlsx
+++ b/Xml Bayi/Anket sonucu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="AnketSonuc" sheetId="1" r:id="rId1"/>
@@ -890,16 +890,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
